--- a/NewsWebsite/wwwroot/excel_templates/amlak_private.xlsx
+++ b/NewsWebsite/wwwroot/excel_templates/amlak_private.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\ASP\Erp_Project\NewsWebsite\wwwroot\excel_templetes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\ASP\Erp_Project\NewsWebsite\wwwroot\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45B04A6-3D9D-4A71-80CE-9FEFFB2BD3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCFB8BB-87B4-485D-A782-9B98C9823820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F283721-637C-4500-B8C0-83D034281840}"/>
+    <workbookView xWindow="11910" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{7F283721-637C-4500-B8C0-83D034281840}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">شناسه </t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>مالک</t>
-  </si>
-  <si>
-    <t>نوع کاربری</t>
   </si>
   <si>
     <t>عنوان</t>
@@ -444,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EAFCDD-FB47-4362-A5C0-F41217BC06F8}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,15 +453,15 @@
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,37 +472,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
